--- a/files for download/Таблица оборудования PON.xlsx
+++ b/files for download/Таблица оборудования PON.xlsx
@@ -1380,2133 +1380,994 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2/9/2</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>УД-40 пр. Октября 1А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A5GM40-A000OL01</t>
+          <t>ЗИП-C300-68</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Шасси OLT ZTE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>596256</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>219029712375</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXN)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>605421</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>287797100464</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXN)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>615961</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>701911001153</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="inlineStr"/>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXL)</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>596256</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>271006200083</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr"/>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCTM)</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>712005700117</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr"/>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCTM)</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>712005700180</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="inlineStr"/>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>596256</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>271034600028</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="inlineStr"/>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>596256</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>271034600718</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="inlineStr"/>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>711785100935</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="inlineStr"/>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>711785101052</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="inlineStr"/>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>616959</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>289694700924</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="inlineStr"/>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>723511700292</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="inlineStr"/>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>723511700098</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="inlineStr"/>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Плата линейная (HUTQ)</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>596256</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>270905400296</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="inlineStr"/>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП пр. Ленина 1</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>ЗИП-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
           <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>612365/612365/1</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>287282403720</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Шасси OLT</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>612369/612369</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>21023537576TG7900039</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Блок вентиляторов (FAN)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>612369/612369</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>21021206456TG7900182</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>022MLM10G7000059</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>022MLM10G7000079</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7002687</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7001012</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>022MLMDMG7612190</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F12" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7002712</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCUH)</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/1</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>023JCH10G5000234</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCUH)</t>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/1</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>023JCH10G5000303</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7004716</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7004359</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG8001700</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>УД-40 пр. Октября 1А</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A000UL07</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>612369/612369/2</t>
+          <t>596256</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>022MLMCNG7002779</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="n">
-        <v>12</v>
-      </c>
+          <t>270839900076</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
+      <c r="A19" s="0" t="inlineStr"/>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>УД-40 пр. Октября 1А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A000UL07</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>612369/612369/2</t>
+          <t>612366/1</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>022MLMCNG7001050</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>13</v>
-      </c>
+          <t>285050801582</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
+      <c r="A20" s="0" t="inlineStr"/>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>УД-40 пр. Октября 1А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A000UL07</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRTE)</t>
+          <t>Плата 8-портовая PON (GTGO) + 0 SFP</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>612369/612369</t>
+          <t>604361</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>020NDECNG6008248</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>19</v>
-      </c>
+          <t>274094600362</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
-        <is>
-          <t>2/12/1</t>
-        </is>
-      </c>
+      <c r="A21" s="0" t="inlineStr"/>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>УД-40 пр. Октября 1А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A000UL07</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRTE)</t>
+          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>612369/612369</t>
+          <t>642357</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>020NDECNG6008177</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>20</v>
-      </c>
+          <t>716848500601</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
-        <is>
-          <t>1/5/1</t>
-        </is>
-      </c>
+      <c r="A22" s="0" t="inlineStr"/>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A265OL02</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Плата управления главная (SCXL)</t>
+          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>612365/612365</t>
+          <t>616227</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>271006200090</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>10</v>
-      </c>
+          <t>706617200568</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
-        <is>
-          <t>1/5/1</t>
-        </is>
-      </c>
+      <c r="A23" s="0" t="inlineStr"/>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A265OL02</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Плата управления главная (SCXL)</t>
+          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>612365/612365</t>
+          <t>642295</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>286325100099</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>11</v>
-      </c>
+          <t>714262600227</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
-        <is>
-          <t>1/5/1</t>
-        </is>
-      </c>
+      <c r="A24" s="0" t="inlineStr"/>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
+          <t>ЗИП пр. Ленина 1</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>A5GM40-A265OL02</t>
+          <t>ЗИП-СТЕЛАЖ</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Плата линейная (HUTQ)</t>
+          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>612365/612365</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>259601000144</t>
-        </is>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>19</v>
-      </c>
+          <t>704375201668</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
-        <is>
-          <t>612352</t>
-        </is>
-      </c>
-      <c r="F25" s="0" t="inlineStr">
-        <is>
-          <t>270839900566</t>
-        </is>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="A25" s="0" t="n"/>
+      <c r="B25" s="0" t="n"/>
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="0" t="n"/>
+      <c r="E25" s="0" t="n"/>
+      <c r="F25" s="0" t="n"/>
+      <c r="G25" s="0" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
-        <is>
-          <t>612354</t>
-        </is>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t>270839900547</t>
-        </is>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>3</v>
-      </c>
+      <c r="A26" s="0" t="n"/>
+      <c r="B26" s="0" t="n"/>
+      <c r="C26" s="0" t="n"/>
+      <c r="D26" s="0" t="n"/>
+      <c r="E26" s="0" t="n"/>
+      <c r="F26" s="0" t="n"/>
+      <c r="G26" s="0" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
-        <is>
-          <t>612353</t>
-        </is>
-      </c>
-      <c r="F27" s="0" t="inlineStr">
-        <is>
-          <t>270839900369</t>
-        </is>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>4</v>
-      </c>
+      <c r="A27" s="0" t="n"/>
+      <c r="B27" s="0" t="n"/>
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="0" t="n"/>
+      <c r="E27" s="0" t="n"/>
+      <c r="F27" s="0" t="n"/>
+      <c r="G27" s="0" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
-        <is>
-          <t>612349</t>
-        </is>
-      </c>
-      <c r="F28" s="0" t="inlineStr">
-        <is>
-          <t>270839900602</t>
-        </is>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="A28" s="0" t="n"/>
+      <c r="B28" s="0" t="n"/>
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="0" t="n"/>
+      <c r="E28" s="0" t="n"/>
+      <c r="F28" s="0" t="n"/>
+      <c r="G28" s="0" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
-        <is>
-          <t>612350</t>
-        </is>
-      </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t>271510500592</t>
-        </is>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="A29" s="0" t="n"/>
+      <c r="B29" s="0" t="n"/>
+      <c r="C29" s="0" t="n"/>
+      <c r="D29" s="0" t="n"/>
+      <c r="E29" s="0" t="n"/>
+      <c r="F29" s="0" t="n"/>
+      <c r="G29" s="0" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
-        <is>
-          <t>1/6/1</t>
-        </is>
-      </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL03</t>
-        </is>
-      </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
-        <is>
-          <t>612351</t>
-        </is>
-      </c>
-      <c r="F30" s="0" t="inlineStr">
-        <is>
-          <t>270839900605</t>
-        </is>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>17</v>
-      </c>
+      <c r="A30" s="0" t="n"/>
+      <c r="B30" s="0" t="n"/>
+      <c r="C30" s="0" t="n"/>
+      <c r="D30" s="0" t="n"/>
+      <c r="E30" s="0" t="n"/>
+      <c r="F30" s="0" t="n"/>
+      <c r="G30" s="0" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
-        <is>
-          <t>1/6/2</t>
-        </is>
-      </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL04</t>
-        </is>
-      </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
-        <is>
-          <t>612359</t>
-        </is>
-      </c>
-      <c r="F31" s="0" t="inlineStr">
-        <is>
-          <t>270975101093</t>
-        </is>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="A31" s="0" t="n"/>
+      <c r="B31" s="0" t="n"/>
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="0" t="n"/>
+      <c r="E31" s="0" t="n"/>
+      <c r="F31" s="0" t="n"/>
+      <c r="G31" s="0" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
-        <is>
-          <t>1/6/2</t>
-        </is>
-      </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL04</t>
-        </is>
-      </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
-        <is>
-          <t>612358</t>
-        </is>
-      </c>
-      <c r="F32" s="0" t="inlineStr">
-        <is>
-          <t>271884500807</t>
-        </is>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>17</v>
-      </c>
+      <c r="A32" s="0" t="n"/>
+      <c r="B32" s="0" t="n"/>
+      <c r="C32" s="0" t="n"/>
+      <c r="D32" s="0" t="n"/>
+      <c r="E32" s="0" t="n"/>
+      <c r="F32" s="0" t="n"/>
+      <c r="G32" s="0" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL05</t>
-        </is>
-      </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
-        <is>
-          <t>612363</t>
-        </is>
-      </c>
-      <c r="F33" s="0" t="inlineStr">
-        <is>
-          <t>271884500327</t>
-        </is>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>8</v>
-      </c>
+      <c r="A33" s="0" t="n"/>
+      <c r="B33" s="0" t="n"/>
+      <c r="C33" s="0" t="n"/>
+      <c r="D33" s="0" t="n"/>
+      <c r="E33" s="0" t="n"/>
+      <c r="F33" s="0" t="n"/>
+      <c r="G33" s="0" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL05</t>
-        </is>
-      </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
-        <is>
-          <t>612360</t>
-        </is>
-      </c>
-      <c r="F34" s="0" t="inlineStr">
-        <is>
-          <t>270982100345</t>
-        </is>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>9</v>
-      </c>
+      <c r="A34" s="0" t="n"/>
+      <c r="B34" s="0" t="n"/>
+      <c r="C34" s="0" t="n"/>
+      <c r="D34" s="0" t="n"/>
+      <c r="E34" s="0" t="n"/>
+      <c r="F34" s="0" t="n"/>
+      <c r="G34" s="0" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL05</t>
-        </is>
-      </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
-        <is>
-          <t>612361</t>
-        </is>
-      </c>
-      <c r="F35" s="0" t="inlineStr">
-        <is>
-          <t>272219101246</t>
-        </is>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>13</v>
-      </c>
+      <c r="A35" s="0" t="n"/>
+      <c r="B35" s="0" t="n"/>
+      <c r="C35" s="0" t="n"/>
+      <c r="D35" s="0" t="n"/>
+      <c r="E35" s="0" t="n"/>
+      <c r="F35" s="0" t="n"/>
+      <c r="G35" s="0" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL05</t>
-        </is>
-      </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
-        <is>
-          <t>612362</t>
-        </is>
-      </c>
-      <c r="F36" s="0" t="inlineStr">
-        <is>
-          <t>271884501020</t>
-        </is>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>14</v>
-      </c>
+      <c r="A36" s="0" t="n"/>
+      <c r="B36" s="0" t="n"/>
+      <c r="C36" s="0" t="n"/>
+      <c r="D36" s="0" t="n"/>
+      <c r="E36" s="0" t="n"/>
+      <c r="F36" s="0" t="n"/>
+      <c r="G36" s="0" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
-        <is>
-          <t>1/4/2</t>
-        </is>
-      </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL06</t>
-        </is>
-      </c>
-      <c r="D37" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
-        <is>
-          <t>612365/612365/1</t>
-        </is>
-      </c>
-      <c r="F37" s="0" t="inlineStr">
-        <is>
-          <t>287282400087</t>
-        </is>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="A37" s="0" t="n"/>
+      <c r="B37" s="0" t="n"/>
+      <c r="C37" s="0" t="n"/>
+      <c r="D37" s="0" t="n"/>
+      <c r="E37" s="0" t="n"/>
+      <c r="F37" s="0" t="n"/>
+      <c r="G37" s="0" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
-        <is>
-          <t>1/4/2</t>
-        </is>
-      </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>УД-43 ул. 70 лет БССР 5А</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
-        <is>
-          <t>A5GM40-A265OL06</t>
-        </is>
-      </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
-        <is>
-          <t>612366/1</t>
-        </is>
-      </c>
-      <c r="F38" s="0" t="inlineStr">
-        <is>
-          <t>285050800806</t>
-        </is>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>7</v>
-      </c>
+      <c r="A38" s="0" t="n"/>
+      <c r="B38" s="0" t="n"/>
+      <c r="C38" s="0" t="n"/>
+      <c r="D38" s="0" t="n"/>
+      <c r="E38" s="0" t="n"/>
+      <c r="F38" s="0" t="n"/>
+      <c r="G38" s="0" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
-        <is>
-          <t>2/8/1</t>
-        </is>
-      </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>УД-58 УД-58_ул. 50 лет БССР 2</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
-        <is>
-          <t>A5GM58-A000OL02</t>
-        </is>
-      </c>
-      <c r="D39" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
-        <is>
-          <t>612347</t>
-        </is>
-      </c>
-      <c r="F39" s="0" t="inlineStr">
-        <is>
-          <t>287282400308</t>
-        </is>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>9</v>
-      </c>
+      <c r="A39" s="0" t="n"/>
+      <c r="B39" s="0" t="n"/>
+      <c r="C39" s="0" t="n"/>
+      <c r="D39" s="0" t="n"/>
+      <c r="E39" s="0" t="n"/>
+      <c r="F39" s="0" t="n"/>
+      <c r="G39" s="0" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
-        <is>
-          <t>2/8/1</t>
-        </is>
-      </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>УД-58 УД-58_ул. 50 лет БССР 2</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
-        <is>
-          <t>A5GM58-A000OL02</t>
-        </is>
-      </c>
-      <c r="D40" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E40" s="0" t="inlineStr">
-        <is>
-          <t>612348</t>
-        </is>
-      </c>
-      <c r="F40" s="0" t="inlineStr">
-        <is>
-          <t>287282400608</t>
-        </is>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>12</v>
-      </c>
+      <c r="A40" s="0" t="n"/>
+      <c r="B40" s="0" t="n"/>
+      <c r="C40" s="0" t="n"/>
+      <c r="D40" s="0" t="n"/>
+      <c r="E40" s="0" t="n"/>
+      <c r="F40" s="0" t="n"/>
+      <c r="G40" s="0" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D41" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F41" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG5001265</t>
-        </is>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A41" s="0" t="n"/>
+      <c r="B41" s="0" t="n"/>
+      <c r="C41" s="0" t="n"/>
+      <c r="D41" s="0" t="n"/>
+      <c r="E41" s="0" t="n"/>
+      <c r="F41" s="0" t="n"/>
+      <c r="G41" s="0" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D42" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F42" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG4006025</t>
-        </is>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>2</v>
-      </c>
+      <c r="A42" s="0" t="n"/>
+      <c r="B42" s="0" t="n"/>
+      <c r="C42" s="0" t="n"/>
+      <c r="D42" s="0" t="n"/>
+      <c r="E42" s="0" t="n"/>
+      <c r="F42" s="0" t="n"/>
+      <c r="G42" s="0" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D43" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F43" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG4006237</t>
-        </is>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>3</v>
-      </c>
+      <c r="A43" s="0" t="n"/>
+      <c r="B43" s="0" t="n"/>
+      <c r="C43" s="0" t="n"/>
+      <c r="D43" s="0" t="n"/>
+      <c r="E43" s="0" t="n"/>
+      <c r="F43" s="0" t="n"/>
+      <c r="G43" s="0" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D44" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F44" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNH4002808</t>
-        </is>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>4</v>
-      </c>
+      <c r="A44" s="0" t="n"/>
+      <c r="B44" s="0" t="n"/>
+      <c r="C44" s="0" t="n"/>
+      <c r="D44" s="0" t="n"/>
+      <c r="E44" s="0" t="n"/>
+      <c r="F44" s="0" t="n"/>
+      <c r="G44" s="0" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F45" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNH4001243</t>
-        </is>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="A45" s="0" t="n"/>
+      <c r="B45" s="0" t="n"/>
+      <c r="C45" s="0" t="n"/>
+      <c r="D45" s="0" t="n"/>
+      <c r="E45" s="0" t="n"/>
+      <c r="F45" s="0" t="n"/>
+      <c r="G45" s="0" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D46" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F46" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG6002708</t>
-        </is>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>9</v>
-      </c>
+      <c r="A46" s="0" t="n"/>
+      <c r="B46" s="0" t="n"/>
+      <c r="C46" s="0" t="n"/>
+      <c r="D46" s="0" t="n"/>
+      <c r="E46" s="0" t="n"/>
+      <c r="F46" s="0" t="n"/>
+      <c r="G46" s="0" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D47" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F47" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG4006185</t>
-        </is>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>10</v>
-      </c>
+      <c r="A47" s="0" t="n"/>
+      <c r="B47" s="0" t="n"/>
+      <c r="C47" s="0" t="n"/>
+      <c r="D47" s="0" t="n"/>
+      <c r="E47" s="0" t="n"/>
+      <c r="F47" s="0" t="n"/>
+      <c r="G47" s="0" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
-        <is>
-          <t>1/3/1</t>
-        </is>
-      </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>УД-61 ул. П.Бровки 35А</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A264UL03</t>
-        </is>
-      </c>
-      <c r="D48" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E48" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F48" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNJ4003270</t>
-        </is>
-      </c>
-      <c r="G48" s="0" t="n">
-        <v>14</v>
-      </c>
+      <c r="A48" s="0" t="n"/>
+      <c r="B48" s="0" t="n"/>
+      <c r="C48" s="0" t="n"/>
+      <c r="D48" s="0" t="n"/>
+      <c r="E48" s="0" t="n"/>
+      <c r="F48" s="0" t="n"/>
+      <c r="G48" s="0" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
-        <is>
-          <t>1/7/3</t>
-        </is>
-      </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>УД-63 ул. Гомсельмаша 4А</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
-        <is>
-          <t>A5GM63-A000UL16</t>
-        </is>
-      </c>
-      <c r="D49" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPHF) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F49" s="0" t="inlineStr">
-        <is>
-          <t>022MLMDMG7612190</t>
-        </is>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>5</v>
-      </c>
+      <c r="A49" s="0" t="n"/>
+      <c r="B49" s="0" t="n"/>
+      <c r="C49" s="0" t="n"/>
+      <c r="D49" s="0" t="n"/>
+      <c r="E49" s="0" t="n"/>
+      <c r="F49" s="0" t="n"/>
+      <c r="G49" s="0" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
-        <is>
-          <t>1/7/3</t>
-        </is>
-      </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>УД-63 ул. Гомсельмаша 4А</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
-        <is>
-          <t>A5GM63-A000UL16</t>
-        </is>
-      </c>
-      <c r="D50" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPHF) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
-        <is>
-          <t>612369/612369/2</t>
-        </is>
-      </c>
-      <c r="F50" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG7001012</t>
-        </is>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>6</v>
-      </c>
+      <c r="A50" s="0" t="n"/>
+      <c r="B50" s="0" t="n"/>
+      <c r="C50" s="0" t="n"/>
+      <c r="D50" s="0" t="n"/>
+      <c r="E50" s="0" t="n"/>
+      <c r="F50" s="0" t="n"/>
+      <c r="G50" s="0" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
-        <is>
-          <t>1/2/2</t>
-        </is>
-      </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL02</t>
-        </is>
-      </c>
-      <c r="D51" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
-        <is>
-          <t>612355</t>
-        </is>
-      </c>
-      <c r="F51" s="0" t="inlineStr">
-        <is>
-          <t>286549800098</t>
-        </is>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>15</v>
-      </c>
+      <c r="A51" s="0" t="n"/>
+      <c r="B51" s="0" t="n"/>
+      <c r="C51" s="0" t="n"/>
+      <c r="D51" s="0" t="n"/>
+      <c r="E51" s="0" t="n"/>
+      <c r="F51" s="0" t="n"/>
+      <c r="G51" s="0" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
-        <is>
-          <t>1/2/2</t>
-        </is>
-      </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL02</t>
-        </is>
-      </c>
-      <c r="D52" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
-        <is>
-          <t>612356</t>
-        </is>
-      </c>
-      <c r="F52" s="0" t="inlineStr">
-        <is>
-          <t>288224902193</t>
-        </is>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>16</v>
-      </c>
+      <c r="A52" s="0" t="n"/>
+      <c r="B52" s="0" t="n"/>
+      <c r="C52" s="0" t="n"/>
+      <c r="D52" s="0" t="n"/>
+      <c r="E52" s="0" t="n"/>
+      <c r="F52" s="0" t="n"/>
+      <c r="G52" s="0" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
-        <is>
-          <t>1/2/2</t>
-        </is>
-      </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL02</t>
-        </is>
-      </c>
-      <c r="D53" s="0" t="inlineStr">
-        <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
-        </is>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
-        <is>
-          <t>612357</t>
-        </is>
-      </c>
-      <c r="F53" s="0" t="inlineStr">
-        <is>
-          <t>286772700974</t>
-        </is>
-      </c>
-      <c r="G53" s="0" t="n">
-        <v>17</v>
-      </c>
+      <c r="A53" s="0" t="n"/>
+      <c r="B53" s="0" t="n"/>
+      <c r="C53" s="0" t="n"/>
+      <c r="D53" s="0" t="n"/>
+      <c r="E53" s="0" t="n"/>
+      <c r="F53" s="0" t="n"/>
+      <c r="G53" s="0" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL06</t>
-        </is>
-      </c>
-      <c r="D54" s="0" t="inlineStr">
-        <is>
-          <t>Шасси OLT ZTE</t>
-        </is>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
-        <is>
-          <t>612365/612365</t>
-        </is>
-      </c>
-      <c r="F54" s="0" t="inlineStr">
-        <is>
-          <t>219118693388</t>
-        </is>
-      </c>
-      <c r="G54" s="0" t="inlineStr"/>
+      <c r="A54" s="0" t="n"/>
+      <c r="B54" s="0" t="n"/>
+      <c r="C54" s="0" t="n"/>
+      <c r="D54" s="0" t="n"/>
+      <c r="E54" s="0" t="n"/>
+      <c r="F54" s="0" t="n"/>
+      <c r="G54" s="0" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL06</t>
-        </is>
-      </c>
-      <c r="D55" s="0" t="inlineStr">
-        <is>
-          <t>Блок вентиляторов (FAN)</t>
-        </is>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
-        <is>
-          <t>612365/612365</t>
-        </is>
-      </c>
-      <c r="F55" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>-1</v>
-      </c>
+      <c r="A55" s="0" t="n"/>
+      <c r="B55" s="0" t="n"/>
+      <c r="C55" s="0" t="n"/>
+      <c r="D55" s="0" t="n"/>
+      <c r="E55" s="0" t="n"/>
+      <c r="F55" s="0" t="n"/>
+      <c r="G55" s="0" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL06</t>
-        </is>
-      </c>
-      <c r="D56" s="0" t="inlineStr">
-        <is>
-          <t>Плата питания -48V (PRWG)</t>
-        </is>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
-        <is>
-          <t>612365/612365</t>
-        </is>
-      </c>
-      <c r="F56" s="0" t="inlineStr">
-        <is>
-          <t>706854000114</t>
-        </is>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A56" s="0" t="n"/>
+      <c r="B56" s="0" t="n"/>
+      <c r="C56" s="0" t="n"/>
+      <c r="D56" s="0" t="n"/>
+      <c r="E56" s="0" t="n"/>
+      <c r="F56" s="0" t="n"/>
+      <c r="G56" s="0" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
-        <is>
-          <t>1/5/2</t>
-        </is>
-      </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>УД-94 ул. Каленикова 4</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
-        <is>
-          <t>A5GM37-A262OL06</t>
-        </is>
-      </c>
-      <c r="D57" s="0" t="inlineStr">
-        <is>
-          <t>Плата питания -48V (PRWG)</t>
-        </is>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
-        <is>
-          <t>612365/612365</t>
-        </is>
-      </c>
-      <c r="F57" s="0" t="inlineStr">
-        <is>
-          <t>709660800087</t>
-        </is>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A57" s="0" t="n"/>
+      <c r="B57" s="0" t="n"/>
+      <c r="C57" s="0" t="n"/>
+      <c r="D57" s="0" t="n"/>
+      <c r="E57" s="0" t="n"/>
+      <c r="F57" s="0" t="n"/>
+      <c r="G57" s="0" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D58" s="0" t="inlineStr">
-        <is>
-          <t>Шасси OLT</t>
-        </is>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364</t>
-        </is>
-      </c>
-      <c r="F58" s="0" t="inlineStr">
-        <is>
-          <t>21023537576TG4900264</t>
-        </is>
-      </c>
-      <c r="G58" s="0" t="inlineStr"/>
+      <c r="A58" s="0" t="n"/>
+      <c r="B58" s="0" t="n"/>
+      <c r="C58" s="0" t="n"/>
+      <c r="D58" s="0" t="n"/>
+      <c r="E58" s="0" t="n"/>
+      <c r="F58" s="0" t="n"/>
+      <c r="G58" s="0" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D59" s="0" t="inlineStr">
-        <is>
-          <t>Блок вентиляторов (FAN)</t>
-        </is>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364</t>
-        </is>
-      </c>
-      <c r="F59" s="0" t="inlineStr">
-        <is>
-          <t>21021206456TG4900223</t>
-        </is>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="A59" s="0" t="n"/>
+      <c r="B59" s="0" t="n"/>
+      <c r="C59" s="0" t="n"/>
+      <c r="D59" s="0" t="n"/>
+      <c r="E59" s="0" t="n"/>
+      <c r="F59" s="0" t="n"/>
+      <c r="G59" s="0" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D60" s="0" t="inlineStr">
-        <is>
-          <t>Плата 16-портовая PON (GPFD) + 16 SFP</t>
-        </is>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/2</t>
-        </is>
-      </c>
-      <c r="F60" s="0" t="inlineStr">
-        <is>
-          <t>022MLMCNG4006195</t>
-        </is>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="A60" s="0" t="n"/>
+      <c r="B60" s="0" t="n"/>
+      <c r="C60" s="0" t="n"/>
+      <c r="D60" s="0" t="n"/>
+      <c r="E60" s="0" t="n"/>
+      <c r="F60" s="0" t="n"/>
+      <c r="G60" s="0" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D61" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCUH)</t>
-        </is>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/1</t>
-        </is>
-      </c>
-      <c r="F61" s="0" t="inlineStr">
-        <is>
-          <t>023JCH10G4000299</t>
-        </is>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>7</v>
-      </c>
+      <c r="A61" s="0" t="n"/>
+      <c r="B61" s="0" t="n"/>
+      <c r="C61" s="0" t="n"/>
+      <c r="D61" s="0" t="n"/>
+      <c r="E61" s="0" t="n"/>
+      <c r="F61" s="0" t="n"/>
+      <c r="G61" s="0" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D62" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCUH)</t>
-        </is>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364/1</t>
-        </is>
-      </c>
-      <c r="F62" s="0" t="inlineStr">
-        <is>
-          <t>023JCH10G4000250</t>
-        </is>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>8</v>
-      </c>
+      <c r="A62" s="0" t="n"/>
+      <c r="B62" s="0" t="n"/>
+      <c r="C62" s="0" t="n"/>
+      <c r="D62" s="0" t="n"/>
+      <c r="E62" s="0" t="n"/>
+      <c r="F62" s="0" t="n"/>
+      <c r="G62" s="0" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t>Плата питания -48V (PRTE)</t>
-        </is>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364</t>
-        </is>
-      </c>
-      <c r="F63" s="0" t="inlineStr">
-        <is>
-          <t>020NDECNG5008587</t>
-        </is>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>19</v>
-      </c>
+      <c r="A63" s="0" t="n"/>
+      <c r="B63" s="0" t="n"/>
+      <c r="C63" s="0" t="n"/>
+      <c r="D63" s="0" t="n"/>
+      <c r="E63" s="0" t="n"/>
+      <c r="F63" s="0" t="n"/>
+      <c r="G63" s="0" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="inlineStr">
-        <is>
-          <t>4/18/2</t>
-        </is>
-      </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>ЦОД пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
-        <is>
-          <t>A5GMDC-A000UL05</t>
-        </is>
-      </c>
-      <c r="D64" s="0" t="inlineStr">
-        <is>
-          <t>Плата питания -48V (PRTE)</t>
-        </is>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
-        <is>
-          <t>612364/612364</t>
-        </is>
-      </c>
-      <c r="F64" s="0" t="inlineStr">
-        <is>
-          <t>020NDECNG5008154</t>
-        </is>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>20</v>
-      </c>
+      <c r="A64" s="0" t="n"/>
+      <c r="B64" s="0" t="n"/>
+      <c r="C64" s="0" t="n"/>
+      <c r="D64" s="0" t="n"/>
+      <c r="E64" s="0" t="n"/>
+      <c r="F64" s="0" t="n"/>
+      <c r="G64" s="0" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n"/>

--- a/files for download/Таблица оборудования PON.xlsx
+++ b/files for download/Таблица оборудования PON.xlsx
@@ -1380,15 +1380,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2/9/2</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>40 пр. Октября 1А</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ЗИП-C300-68</t>
+          <t>A5GM40-A000OL01</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1398,850 +1402,1664 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>596256</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>219029712375</t>
+          <t>262104600204</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2/9/2</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>40 пр. Октября 1А</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A000OL01</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Плата управления главная (SCXN)</t>
+          <t>Блок вентиляторов (FAN)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>605421</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>287797100464</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
       <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2/9/2</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>40 пр. Октября 1А</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A000OL01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Плата управления главная (SCXN)</t>
+          <t>Плата питания -48V (PRWG)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>615961</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>701911001153</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>260558400061</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
       <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>2/9/2</t>
+        </is>
+      </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>40 пр. Октября 1А</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A000OL01</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>566035</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>260558400364</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2/9/2</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>40 пр. Октября 1А</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>A5GM40-A000OL01</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Плата линейная (HUTQ)</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>566035</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>261154900095</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>1/6/2</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>43 ул. 70 лет БССР 5А</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>A5GM40-A265OL03</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
           <t>Плата управления главная (SCXL)</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>596256</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>271006200083</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="inlineStr"/>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>ЗИП пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>ЗИП-СТЕЛАЖ</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCTM)</t>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>712005700117</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr"/>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>ЗИП пр. Ленина 1</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>ЗИП-СТЕЛАЖ</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>Плата управления главная (SCTM)</t>
-        </is>
-      </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>712005700180</t>
-        </is>
-      </c>
-      <c r="G9" s="0" t="inlineStr"/>
+          <t>259196200016</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>1/6/2</t>
+        </is>
+      </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL03</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRWG)</t>
+          <t>Плата управления главная (SCXL)</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>596256</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>271034600028</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr"/>
+          <t>261003100020</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRWG)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>596256</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>271034600718</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr"/>
+          <t>274887800454</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRWG)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>711785100935</t>
-        </is>
-      </c>
-      <c r="G12" s="0" t="inlineStr"/>
+          <t>270839900101</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>6</v>
+      </c>
       <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Плата питания -48V (PRWG)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566041</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>711785101052</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr"/>
+          <t>270839900426</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>9</v>
+      </c>
       <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>616959</t>
+          <t>566042</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>289694700924</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr"/>
+          <t>270839900107</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>12</v>
+      </c>
       <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566043</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>723511700292</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr"/>
+          <t>270729500090</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>13</v>
+      </c>
       <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL04</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Плата 4 портовая 2x10GE/2xGE (HUVQ)</t>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566035</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>723511700098</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr"/>
+          <t>260040900332</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>14</v>
+      </c>
       <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>1/4/2</t>
+        </is>
+      </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL05</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Плата линейная (HUTQ)</t>
+          <t>Шасси OLT ZTE</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>596256</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>270905400296</t>
+          <t>219029921362</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>1/4/2</t>
+        </is>
+      </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL05</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+          <t>Блок вентиляторов (FAN)</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>596256</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>270839900076</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr"/>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>-1</v>
+      </c>
       <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>1/4/2</t>
+        </is>
+      </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL05</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+          <t>Плата питания -48V (PRWG)</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>612366/1</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>285050801582</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr"/>
+          <t>271267300028</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr"/>
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>1/4/2</t>
+        </is>
+      </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL05</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Плата 8-портовая PON (GTGO) + 0 SFP</t>
+          <t>Плата питания -48V (PRWG)</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>604361</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>274094600362</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr"/>
+          <t>270794100979</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>1/4/2</t>
+        </is>
+      </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL05</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
+          <t>Плата линейная (HUTQ)</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>642357</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>716848500601</t>
-        </is>
-      </c>
-      <c r="G21" s="0" t="inlineStr"/>
+          <t>271319200272</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>19</v>
+      </c>
       <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>1/3/1</t>
+        </is>
+      </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL06</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
+          <t>Плата управления главная (SCXL)</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>616227</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>706617200568</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr"/>
+          <t>271529300074</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>1/3/1</t>
+        </is>
+      </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>43 ул. 70 лет БССР 5А</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM40-A265OL06</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
+          <t>Плата управления главная (SCXL)</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>642295</t>
+          <t>566036</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>714262600227</t>
-        </is>
-      </c>
-      <c r="G23" s="0" t="inlineStr"/>
+          <t>271529300189</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr"/>
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>ЗИП пр. Ленина 1</t>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>ЗИП-СТЕЛАЖ</t>
+          <t>A5GM58-A000OL01</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Плата 16-портовая PON (GTGH) + 16 SFP</t>
+          <t>Шасси OLT ZTE</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>566039</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>704375201668</t>
+          <t>212</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="n"/>
-      <c r="B25" s="0" t="n"/>
-      <c r="C25" s="0" t="n"/>
-      <c r="D25" s="0" t="n"/>
-      <c r="E25" s="0" t="n"/>
-      <c r="F25" s="0" t="n"/>
-      <c r="G25" s="0" t="n"/>
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Блок вентиляторов (FAN)</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>б/н</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="n"/>
-      <c r="B26" s="0" t="n"/>
-      <c r="C26" s="0" t="n"/>
-      <c r="D26" s="0" t="n"/>
-      <c r="E26" s="0" t="n"/>
-      <c r="F26" s="0" t="n"/>
-      <c r="G26" s="0" t="n"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>260558400138</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="n"/>
-      <c r="B27" s="0" t="n"/>
-      <c r="C27" s="0" t="n"/>
-      <c r="D27" s="0" t="n"/>
-      <c r="E27" s="0" t="n"/>
-      <c r="F27" s="0" t="n"/>
-      <c r="G27" s="0" t="n"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>260558400616</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="n"/>
-      <c r="B28" s="0" t="n"/>
-      <c r="C28" s="0" t="n"/>
-      <c r="D28" s="0" t="n"/>
-      <c r="E28" s="0" t="n"/>
-      <c r="F28" s="0" t="n"/>
-      <c r="G28" s="0" t="n"/>
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>270982100174</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="n"/>
-      <c r="B29" s="0" t="n"/>
-      <c r="C29" s="0" t="n"/>
-      <c r="D29" s="0" t="n"/>
-      <c r="E29" s="0" t="n"/>
-      <c r="F29" s="0" t="n"/>
-      <c r="G29" s="0" t="n"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>284612801210</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="n"/>
-      <c r="B30" s="0" t="n"/>
-      <c r="C30" s="0" t="n"/>
-      <c r="D30" s="0" t="n"/>
-      <c r="E30" s="0" t="n"/>
-      <c r="F30" s="0" t="n"/>
-      <c r="G30" s="0" t="n"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>284807300403</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="n"/>
-      <c r="B31" s="0" t="n"/>
-      <c r="C31" s="0" t="n"/>
-      <c r="D31" s="0" t="n"/>
-      <c r="E31" s="0" t="n"/>
-      <c r="F31" s="0" t="n"/>
-      <c r="G31" s="0" t="n"/>
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>284716600186</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="n"/>
-      <c r="B32" s="0" t="n"/>
-      <c r="C32" s="0" t="n"/>
-      <c r="D32" s="0" t="n"/>
-      <c r="E32" s="0" t="n"/>
-      <c r="F32" s="0" t="n"/>
-      <c r="G32" s="0" t="n"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXL)</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>260723900059</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="n"/>
-      <c r="B33" s="0" t="n"/>
-      <c r="C33" s="0" t="n"/>
-      <c r="D33" s="0" t="n"/>
-      <c r="E33" s="0" t="n"/>
-      <c r="F33" s="0" t="n"/>
-      <c r="G33" s="0" t="n"/>
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXL)</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>260959300110</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="n"/>
-      <c r="B34" s="0" t="n"/>
-      <c r="C34" s="0" t="n"/>
-      <c r="D34" s="0" t="n"/>
-      <c r="E34" s="0" t="n"/>
-      <c r="F34" s="0" t="n"/>
-      <c r="G34" s="0" t="n"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>Плата мультифункциональная (CICG)</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>261925600001</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="n"/>
-      <c r="B35" s="0" t="n"/>
-      <c r="C35" s="0" t="n"/>
-      <c r="D35" s="0" t="n"/>
-      <c r="E35" s="0" t="n"/>
-      <c r="F35" s="0" t="n"/>
-      <c r="G35" s="0" t="n"/>
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>2/6/2</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>58 УД-58_ул. 50 лет БССР 2</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>A5GM58-A000OL01</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>Плата линейная (HUTQ)</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>566039</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>261154900024</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="n"/>
-      <c r="B36" s="0" t="n"/>
-      <c r="C36" s="0" t="n"/>
-      <c r="D36" s="0" t="n"/>
-      <c r="E36" s="0" t="n"/>
-      <c r="F36" s="0" t="n"/>
-      <c r="G36" s="0" t="n"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>Шасси OLT ZTE</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>219029691939</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="n"/>
-      <c r="B37" s="0" t="n"/>
-      <c r="C37" s="0" t="n"/>
-      <c r="D37" s="0" t="n"/>
-      <c r="E37" s="0" t="n"/>
-      <c r="F37" s="0" t="n"/>
-      <c r="G37" s="0" t="n"/>
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>Блок вентиляторов (FAN)</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>219029781009</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="n"/>
-      <c r="B38" s="0" t="n"/>
-      <c r="C38" s="0" t="n"/>
-      <c r="D38" s="0" t="n"/>
-      <c r="E38" s="0" t="n"/>
-      <c r="F38" s="0" t="n"/>
-      <c r="G38" s="0" t="n"/>
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>271034600621</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="n"/>
-      <c r="B39" s="0" t="n"/>
-      <c r="C39" s="0" t="n"/>
-      <c r="D39" s="0" t="n"/>
-      <c r="E39" s="0" t="n"/>
-      <c r="F39" s="0" t="n"/>
-      <c r="G39" s="0" t="n"/>
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>Плата питания -48V (PRWG)</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>271034600210</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="n"/>
-      <c r="B40" s="0" t="n"/>
-      <c r="C40" s="0" t="n"/>
-      <c r="D40" s="0" t="n"/>
-      <c r="E40" s="0" t="n"/>
-      <c r="F40" s="0" t="n"/>
-      <c r="G40" s="0" t="n"/>
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>260863600065</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="n"/>
-      <c r="B41" s="0" t="n"/>
-      <c r="C41" s="0" t="n"/>
-      <c r="D41" s="0" t="n"/>
-      <c r="E41" s="0" t="n"/>
-      <c r="F41" s="0" t="n"/>
-      <c r="G41" s="0" t="n"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>274887800551</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="n"/>
-      <c r="B42" s="0" t="n"/>
-      <c r="C42" s="0" t="n"/>
-      <c r="D42" s="0" t="n"/>
-      <c r="E42" s="0" t="n"/>
-      <c r="F42" s="0" t="n"/>
-      <c r="G42" s="0" t="n"/>
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>287282402165</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="n"/>
-      <c r="B43" s="0" t="n"/>
-      <c r="C43" s="0" t="n"/>
-      <c r="D43" s="0" t="n"/>
-      <c r="E43" s="0" t="n"/>
-      <c r="F43" s="0" t="n"/>
-      <c r="G43" s="0" t="n"/>
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>287282400803</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="n"/>
-      <c r="B44" s="0" t="n"/>
-      <c r="C44" s="0" t="n"/>
-      <c r="D44" s="0" t="n"/>
-      <c r="E44" s="0" t="n"/>
-      <c r="F44" s="0" t="n"/>
-      <c r="G44" s="0" t="n"/>
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>260063000280</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="n"/>
-      <c r="B45" s="0" t="n"/>
-      <c r="C45" s="0" t="n"/>
-      <c r="D45" s="0" t="n"/>
-      <c r="E45" s="0" t="n"/>
-      <c r="F45" s="0" t="n"/>
-      <c r="G45" s="0" t="n"/>
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>260040900649</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="n"/>
-      <c r="B46" s="0" t="n"/>
-      <c r="C46" s="0" t="n"/>
-      <c r="D46" s="0" t="n"/>
-      <c r="E46" s="0" t="n"/>
-      <c r="F46" s="0" t="n"/>
-      <c r="G46" s="0" t="n"/>
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>285050800585</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="n"/>
-      <c r="B47" s="0" t="n"/>
-      <c r="C47" s="0" t="n"/>
-      <c r="D47" s="0" t="n"/>
-      <c r="E47" s="0" t="n"/>
-      <c r="F47" s="0" t="n"/>
-      <c r="G47" s="0" t="n"/>
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>Плата 8-портовая PON (GTGO) + 8 SFP</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>270839900708</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="n"/>
-      <c r="B48" s="0" t="n"/>
-      <c r="C48" s="0" t="n"/>
-      <c r="D48" s="0" t="n"/>
-      <c r="E48" s="0" t="n"/>
-      <c r="F48" s="0" t="n"/>
-      <c r="G48" s="0" t="n"/>
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>Плата управления главная (SCXL)</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>271006200062</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="n"/>
-      <c r="B49" s="0" t="n"/>
-      <c r="C49" s="0" t="n"/>
-      <c r="D49" s="0" t="n"/>
-      <c r="E49" s="0" t="n"/>
-      <c r="F49" s="0" t="n"/>
-      <c r="G49" s="0" t="n"/>
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>1/5/2</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>61 ул. П.Бровки 35А</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>A5GMDC-A264OL01</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>Плата линейная (HUTQ)</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>566038</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>270905400293</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="n"/>
-      <c r="B50" s="0" t="n"/>
-      <c r="C50" s="0" t="n"/>
-      <c r="D50" s="0" t="n"/>
-      <c r="E50" s="0" t="n"/>
-      <c r="F50" s="0" t="n"/>
-      <c r="G50" s="0" t="n"/>
+      <c r="A50" s="0" t="inlineStr"/>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>СКЛАД пр. Октября 1А</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>СКЛАД-СТЕЛАЖ</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>Плата мультифункциональная (CICG)</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>566036</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>261925600063</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n"/>
